--- a/_3/TC/TC_book_new.xlsx
+++ b/_3/TC/TC_book_new.xlsx
@@ -637,107 +637,65 @@
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,28 +704,64 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,54 +772,19 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1200,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -1216,681 +1175,681 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37">
+      <c r="F5" s="21"/>
+      <c r="G5" s="23">
         <v>43821</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37">
+      <c r="F7" s="21"/>
+      <c r="G7" s="23">
         <v>43821</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="18">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="39"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="39"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="39"/>
+      <c r="D14" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="39"/>
+      <c r="D15" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="27">
         <v>43825</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="39" t="s">
+      <c r="D16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="39" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="39"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="39"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="39" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="39"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="39" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="39" t="s">
+      <c r="D23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="D24" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="39"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="39"/>
+      <c r="D26" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="39" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="27">
         <v>46011</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="39" t="s">
+      <c r="D28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="39" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="18"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="39" t="s">
+      <c r="D30" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25.5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="39"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="39" t="s">
+      <c r="D32" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="39" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="39" t="s">
+      <c r="D34" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="39" t="s">
+      <c r="D35" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="39" t="s">
+      <c r="D36" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="39" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="28">
         <v>665554433</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="39"/>
+      <c r="D38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="25.5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="30" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="39"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
@@ -1899,6 +1858,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="A41:B41"/>
@@ -1907,26 +1868,24 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="11" priority="1016" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="7" priority="1016" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="10" priority="1015" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="6" priority="1015" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="9" priority="1014" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="1014" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="8" priority="1013" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="4" priority="1013" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1943,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1959,691 +1918,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37">
+      <c r="F5" s="21"/>
+      <c r="G5" s="23">
         <v>43821</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37">
+      <c r="F7" s="21"/>
+      <c r="G7" s="23">
         <v>43821</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51">
-      <c r="A12" s="18">
+      <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="39"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="18">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="39"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="39"/>
+      <c r="D14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="39"/>
+      <c r="D15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="27">
         <v>43825</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="39" t="s">
+      <c r="D16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="39"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="39"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="39"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="39"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="25.5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="39"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="39"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="39"/>
+      <c r="D23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="39"/>
+      <c r="D24" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="39"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="39"/>
+      <c r="D26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="39"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="27">
         <v>46011</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="39" t="s">
+      <c r="D28" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="39"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="18"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="39" t="s">
+      <c r="D30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25.5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="39"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="39"/>
+      <c r="D32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="39"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="39"/>
+      <c r="D34" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="39"/>
+      <c r="D35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="39"/>
+      <c r="D36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="39"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="28">
         <v>665554433</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="39"/>
+      <c r="D38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="18"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="39" t="s">
+      <c r="D39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="39"/>
+      <c r="D40" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="25.5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="39"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" t="s">
@@ -2664,22 +2623,22 @@
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_3/TC/TC_book_new.xlsx
+++ b/_3/TC/TC_book_new.xlsx
@@ -4,42 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Bk_1V_HP" sheetId="1" r:id="rId1"/>
     <sheet name="Bk_2V_HP" sheetId="8" r:id="rId2"/>
     <sheet name="Bk_N_AisCH_1" sheetId="10" r:id="rId3"/>
     <sheet name="Bk_N_INbeCH" sheetId="11" r:id="rId4"/>
+    <sheet name="Шаблон" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="164">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Module name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> authorization</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="168">
   <si>
     <t>Test Case</t>
   </si>
@@ -277,21 +256,6 @@
     <t>listbox "TITLE":</t>
   </si>
   <si>
-    <t>select radiobutton "RETURN/ONE WAY"</t>
-  </si>
-  <si>
-    <t>select from combo-box "FLIGHT FROM"</t>
-  </si>
-  <si>
-    <t>input into field "DEPARTURE DATE" by Month-Calendar</t>
-  </si>
-  <si>
-    <t>select from infobox "PASSANGERS"</t>
-  </si>
-  <si>
-    <t>select from listbox "SEARCH PERIOD"</t>
-  </si>
-  <si>
     <t>select radiobutton "CLASS"</t>
   </si>
   <si>
@@ -333,9 +297,6 @@
     <t>VALIDATION PASSED</t>
   </si>
   <si>
-    <t>select from combo-box 'FLIGHT TO"</t>
-  </si>
-  <si>
     <t>select from listbox "TITLE"</t>
   </si>
   <si>
@@ -376,24 +337,6 @@
   </si>
   <si>
     <t>input into field "LAST NAME"</t>
-  </si>
-  <si>
-    <t>input into field "DOCUMENT TYPE"</t>
-  </si>
-  <si>
-    <t>input into field "NATIONALITY"</t>
-  </si>
-  <si>
-    <t>input into field "DOCUMENT NUMBER'</t>
-  </si>
-  <si>
-    <t>select from listbox "ISSUING COUNTRY"</t>
-  </si>
-  <si>
-    <t>input into field  "DATE OF BIRTH" by Month-Calendar</t>
-  </si>
-  <si>
-    <t>input into field "EXPIRY DATE" by Month-Calendar</t>
   </si>
   <si>
     <t>input into field "EMAIL"</t>
@@ -590,6 +533,9 @@
     <t>Untested</t>
   </si>
   <si>
+    <t>Родители на двухлетие берут билет зарание)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -598,7 +544,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">ограничение на выбор ДР только ранее чем  2 года назад от </t>
+      <t xml:space="preserve">ограничение на выбор ДР только ранее чем  1 года назад от </t>
     </r>
     <r>
       <rPr>
@@ -620,11 +566,97 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> 
-Ограничение мешает взять билет ребёнку которому на момент вылета уже будет 3 года</t>
+Ограничение мешает взять билет ребёнку которому на момент вылета уже будет 2 года</t>
     </r>
   </si>
   <si>
-    <t>Родители на двухлетие берут билет зарание)</t>
+    <t>listbox "SEARCH PERIOD"</t>
+  </si>
+  <si>
+    <t>infobox "PASSANGERS"</t>
+  </si>
+  <si>
+    <t>field "DEPARTURE DATE" by Month-Calendar</t>
+  </si>
+  <si>
+    <t>field "FIRST NAME"</t>
+  </si>
+  <si>
+    <t>field "LAST NAME"</t>
+  </si>
+  <si>
+    <t>field "DOCUMENT TYPE"</t>
+  </si>
+  <si>
+    <t>field "DOCUMENT NUMBER'</t>
+  </si>
+  <si>
+    <t>field "NATIONALITY"</t>
+  </si>
+  <si>
+    <t>field "EXPIRY DATE" by Month-Calendar</t>
+  </si>
+  <si>
+    <t>field  "DATE OF BIRTH" by Month-Calendar</t>
+  </si>
+  <si>
+    <t>field "EMAIL"</t>
+  </si>
+  <si>
+    <t>combo-box 'FLIGHT TO"</t>
+  </si>
+  <si>
+    <t>listbox "TITLE"</t>
+  </si>
+  <si>
+    <t>listbox "ISSUING COUNTRY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list-box "MOBILE PHONE"  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Module name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Booking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Module name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Booking</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -943,7 +975,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1045,60 +1077,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1126,6 +1104,63 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,40 +1262,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1283,6 +1288,36 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1794,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1810,64 +1845,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="30">
@@ -1877,29 +1912,29 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="30">
@@ -1909,63 +1944,63 @@
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60">
@@ -1973,15 +2008,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -1990,17 +2025,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -2009,17 +2044,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -2028,17 +2063,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -2047,20 +2082,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8">
         <v>43825</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
@@ -2068,20 +2103,20 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
@@ -2089,17 +2124,17 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="10"/>
     </row>
@@ -2108,15 +2143,15 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -2125,20 +2160,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
@@ -2146,15 +2181,15 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -2163,20 +2198,20 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
@@ -2184,20 +2219,20 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
@@ -2205,20 +2240,20 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
@@ -2226,17 +2261,17 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -2245,17 +2280,17 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -2264,20 +2299,20 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
@@ -2285,20 +2320,20 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
@@ -2306,20 +2341,20 @@
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
@@ -2327,20 +2362,20 @@
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -2348,15 +2383,15 @@
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -2365,20 +2400,20 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
@@ -2386,20 +2421,20 @@
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30">
@@ -2407,20 +2442,20 @@
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30">
@@ -2428,20 +2463,20 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="31.5">
@@ -2449,20 +2484,20 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
@@ -2470,20 +2505,20 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
@@ -2491,17 +2526,17 @@
         <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9">
         <v>665554433</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -2510,50 +2545,50 @@
         <v>28</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="37" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="B45" s="56" t="s">
-        <v>40</v>
+      <c r="B45" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2601,16 +2636,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
@@ -2619,64 +2654,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="30">
@@ -2686,29 +2721,29 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="30">
@@ -2718,63 +2753,63 @@
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="44"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="55"/>
       <c r="E8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="46"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60">
@@ -2782,15 +2817,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2799,580 +2834,575 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>89</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
+      <c r="F14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15" s="4">
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="4">
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C16" s="8">
         <v>43825</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="4">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="4">
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="4">
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="4">
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="4">
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="4">
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="4">
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="4">
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="4">
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26" s="4">
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="4">
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="4">
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="4">
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="4">
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="4">
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="4">
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="A33" s="4">
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="30" customHeight="1">
       <c r="A34" s="4">
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="4">
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="4">
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="4">
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="4">
         <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9">
         <v>995554433</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39" s="4">
         <v>28</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40" s="4">
         <v>29</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="4">
         <v>30</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="37" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3388,23 +3418,63 @@
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="29" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(F13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(F14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3423,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3439,64 +3509,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="30">
@@ -3506,29 +3576,29 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45.75">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="30">
@@ -3538,63 +3608,63 @@
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="44"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="55"/>
       <c r="E8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="46"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60">
@@ -3602,15 +3672,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -3619,17 +3689,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -3638,17 +3708,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -3657,17 +3727,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -3676,20 +3746,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8">
         <v>43825</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
@@ -3697,17 +3767,17 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -3716,17 +3786,17 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="10"/>
     </row>
@@ -3735,15 +3805,15 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -3752,20 +3822,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
@@ -3773,15 +3843,15 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -3790,17 +3860,17 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -3809,17 +3879,17 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -3828,17 +3898,17 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -3847,17 +3917,17 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -3866,17 +3936,17 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10"/>
     </row>
@@ -3885,17 +3955,17 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="10"/>
     </row>
@@ -3904,20 +3974,20 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
@@ -3925,17 +3995,17 @@
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="10"/>
     </row>
@@ -3944,22 +4014,22 @@
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="53">
+        <v>56</v>
+      </c>
+      <c r="C30" s="35">
         <v>39436</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -3967,17 +4037,17 @@
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="54" t="s">
-        <v>125</v>
+      <c r="D31" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -3986,20 +4056,20 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30">
@@ -4007,17 +4077,17 @@
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -4026,17 +4096,17 @@
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="10"/>
     </row>
@@ -4045,17 +4115,17 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10"/>
     </row>
@@ -4064,17 +4134,17 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>116</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="10"/>
     </row>
@@ -4083,17 +4153,17 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="10"/>
     </row>
@@ -4102,17 +4172,17 @@
         <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="9">
         <v>665554433</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="10"/>
     </row>
@@ -4121,47 +4191,47 @@
         <v>28</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="54" t="s">
-        <v>125</v>
+      <c r="D39" s="36" t="s">
+        <v>112</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="55" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4178,22 +4248,22 @@
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4214,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4230,64 +4300,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="30">
@@ -4297,29 +4367,29 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45.75">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="30">
@@ -4329,63 +4399,63 @@
     <row r="8" spans="1:7" ht="75.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="44"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="55"/>
       <c r="E8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="46"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60">
@@ -4393,15 +4463,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="10"/>
     </row>
@@ -4410,17 +4480,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10"/>
     </row>
@@ -4429,17 +4499,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="10"/>
     </row>
@@ -4448,17 +4518,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="10"/>
     </row>
@@ -4467,20 +4537,20 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="60">
+        <v>48</v>
+      </c>
+      <c r="C16" s="42">
         <v>43835</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
@@ -4488,17 +4558,17 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>158</v>
+        <v>49</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>145</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -4507,17 +4577,17 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="10"/>
     </row>
@@ -4526,15 +4596,15 @@
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -4543,20 +4613,20 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="90">
@@ -4564,15 +4634,15 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="10"/>
     </row>
@@ -4581,17 +4651,17 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10"/>
     </row>
@@ -4600,17 +4670,17 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" s="10"/>
     </row>
@@ -4619,17 +4689,17 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="10"/>
     </row>
@@ -4638,17 +4708,17 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -4657,463 +4727,463 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C37" s="8">
         <v>46011</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="76.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="62" t="s">
-        <v>162</v>
+        <v>112</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C47" s="9">
         <v>995554433</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="30">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="30">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="58" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5130,42 +5200,42 @@
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F50">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F50">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F50">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F50">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F50">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH(("Untested"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F50">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Checked">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Checked">
       <formula>NOT(ISERROR(SEARCH(("Checked"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F50">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F50">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH(("Blocked"),(F40))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5180,4 +5250,711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="4">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A10:G10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F12:F50">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F50">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F50">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F50">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F50">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH(("Untested"),(F40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F50">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Checked">
+      <formula>NOT(ISERROR(SEARCH(("Checked"),(F40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F50">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(F40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F50">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH(("Blocked"),(F40))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Test steps status: Checked, Blocked, Failed, Untested" sqref="F12:F50">
+      <formula1>"Checked,Blocked,Failed,Untested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/_3/TC/TC_book_new.xlsx
+++ b/_3/TC/TC_book_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bk_1V_HP" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="171">
   <si>
     <t>Test Case</t>
   </si>
@@ -395,10 +395,6 @@
     <t>booking by user(lunregistered)</t>
   </si>
   <si>
-    <t>Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
-возраст пассажира 12 лет (ребёнок)</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -421,9 +417,6 @@
   </si>
   <si>
     <t>Blocked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 years   Month-Calendar </t>
   </si>
   <si>
     <t>ticket ordered</t>
@@ -522,9 +515,6 @@
   </si>
   <si>
     <t>2 (1 adult 1 infant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30/12/2007</t>
   </si>
   <si>
     <t>unselectable</t>
@@ -658,12 +648,31 @@
       <t>Booking</t>
     </r>
   </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
+возраст пассажира 11 лет (ребёнок)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 years   from keyboard </t>
+  </si>
+  <si>
+    <t>Month-Calendar max possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/12/2017</t>
+  </si>
+  <si>
+    <t>можно обойти введя дату вручную</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,13 +859,27 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -975,7 +998,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1106,6 +1129,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1829,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1845,35 +1871,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -1946,39 +1972,39 @@
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -2556,30 +2582,30 @@
         <v>16</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
@@ -2639,7 +2665,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2654,35 +2680,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -2755,39 +2781,39 @@
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -2872,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>72</v>
@@ -2891,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="8">
         <v>43825</v>
@@ -2912,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -2931,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>29</v>
@@ -3003,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -3022,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
@@ -3041,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
@@ -3060,7 +3086,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>35</v>
@@ -3079,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
@@ -3098,7 +3124,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -3117,7 +3143,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
@@ -3138,7 +3164,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -3157,7 +3183,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
@@ -3214,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>34</v>
@@ -3233,7 +3259,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>75</v>
@@ -3252,7 +3278,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>76</v>
@@ -3271,7 +3297,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>79</v>
@@ -3290,7 +3316,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>46</v>
@@ -3312,7 +3338,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="9">
-        <v>995554433</v>
+        <v>991112233</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>83</v>
@@ -3379,30 +3405,30 @@
         <v>16</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3494,7 +3520,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3509,35 +3535,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -3545,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -3562,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -3594,7 +3620,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -3610,39 +3636,39 @@
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="55"/>
+      <c r="C8" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -3863,7 +3889,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>67</v>
@@ -3882,7 +3908,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>83</v>
@@ -3901,7 +3927,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>83</v>
@@ -3939,7 +3965,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>83</v>
@@ -4017,19 +4043,19 @@
         <v>56</v>
       </c>
       <c r="C30" s="35">
-        <v>39436</v>
+        <v>40532</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="G30" s="10" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -4041,13 +4067,13 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -4080,7 +4106,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>67</v>
@@ -4099,7 +4125,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>83</v>
@@ -4118,7 +4144,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>83</v>
@@ -4137,7 +4163,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>83</v>
@@ -4195,39 +4221,39 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
@@ -4284,8 +4310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4300,35 +4326,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -4336,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -4353,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -4385,7 +4411,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -4401,39 +4427,39 @@
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="55"/>
+      <c r="C8" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -4521,7 +4547,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>83</v>
@@ -4561,7 +4587,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>82</v>
@@ -4638,7 +4664,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -4651,7 +4677,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -4670,7 +4696,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
@@ -4689,7 +4715,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
@@ -4708,7 +4734,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>35</v>
@@ -4727,7 +4753,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
@@ -4744,7 +4770,7 @@
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -4761,7 +4787,7 @@
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
@@ -4774,13 +4800,13 @@
         <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -4797,7 +4823,7 @@
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
@@ -4816,7 +4842,7 @@
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -4833,10 +4859,10 @@
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>83</v>
@@ -4850,7 +4876,7 @@
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>76</v>
@@ -4867,7 +4893,7 @@
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -4884,10 +4910,10 @@
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>83</v>
@@ -4901,7 +4927,7 @@
     <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -4918,7 +4944,7 @@
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" s="8">
         <v>46011</v>
@@ -4937,7 +4963,7 @@
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -4954,22 +4980,22 @@
     <row r="39" spans="1:7" ht="76.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="44" t="s">
         <v>147</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
@@ -4983,9 +5009,11 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="4"/>
@@ -5000,7 +5028,7 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -5017,7 +5045,7 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -5034,7 +5062,7 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -5051,7 +5079,7 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G44" s="2"/>
     </row>
@@ -5068,7 +5096,7 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G45" s="2"/>
     </row>
@@ -5085,7 +5113,7 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -5094,15 +5122,15 @@
       <c r="B47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="9">
-        <v>995554433</v>
+      <c r="C47" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -5119,7 +5147,7 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>40</v>
@@ -5138,7 +5166,7 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -5153,37 +5181,37 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5272,35 +5300,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -5359,33 +5387,33 @@
       <c r="B8" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -5870,30 +5898,30 @@
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/_3/TC/TC_book_new.xlsx
+++ b/_3/TC/TC_book_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bk_1V_HP" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="172">
   <si>
     <t>Test Case</t>
   </si>
@@ -286,9 +286,6 @@
   <si>
     <t>OUTBOUND FLIGHT 
 is present</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>selected (by default)</t>
@@ -666,6 +663,25 @@
   </si>
   <si>
     <t>можно обойти введя дату вручную</t>
+  </si>
+  <si>
+    <t>radiobutton "CLASS":</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">33 years   Month-Calendar 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>issue: filled</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1855,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1872,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -1907,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -1924,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -1938,7 +1954,7 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
@@ -1956,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -1970,7 +1986,7 @@
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>21</v>
@@ -2076,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -2095,7 +2111,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -2111,10 +2127,10 @@
         <v>48</v>
       </c>
       <c r="C16" s="8">
-        <v>43825</v>
+        <v>43835</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -2135,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -2156,7 +2172,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
@@ -2192,7 +2208,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
@@ -2211,7 +2227,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -2251,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
@@ -2272,7 +2288,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
@@ -2312,7 +2328,7 @@
         <v>78</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
@@ -2352,7 +2368,7 @@
         <v>46011</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="19" t="s">
@@ -2383,7 +2399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="30.75">
       <c r="A30" s="4">
         <v>19</v>
       </c>
@@ -2394,14 +2410,14 @@
         <v>37</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -2413,7 +2429,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
@@ -2429,10 +2445,10 @@
         <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
@@ -2474,7 +2490,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="19" t="s">
@@ -2495,7 +2511,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
@@ -2516,7 +2532,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="19" t="s">
@@ -2558,7 +2574,7 @@
         <v>665554433</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="19" t="s">
@@ -2575,14 +2591,14 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2664,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2681,7 +2697,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2716,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -2733,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -2747,7 +2763,7 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
@@ -2765,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -2779,7 +2795,7 @@
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>74</v>
@@ -2885,7 +2901,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -2898,13 +2914,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
@@ -2917,13 +2933,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="8">
-        <v>43825</v>
+        <v>43835</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
@@ -2938,13 +2954,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
@@ -2957,13 +2973,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
@@ -2996,10 +3012,10 @@
         <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="1" t="s">
@@ -3016,7 +3032,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="1" t="s">
@@ -3029,7 +3045,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -3048,13 +3064,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
@@ -3067,13 +3083,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="1" t="s">
@@ -3086,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>35</v>
@@ -3105,13 +3121,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="1" t="s">
@@ -3124,7 +3140,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -3143,13 +3159,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="1" t="s">
@@ -3164,7 +3180,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -3183,13 +3199,13 @@
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="1" t="s">
@@ -3208,7 +3224,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="1" t="s">
@@ -3224,10 +3240,10 @@
         <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
@@ -3240,7 +3256,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>34</v>
@@ -3259,13 +3275,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="1" t="s">
@@ -3278,13 +3294,13 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="1" t="s">
@@ -3297,13 +3313,13 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
@@ -3316,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>46</v>
@@ -3341,7 +3357,7 @@
         <v>991112233</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="1" t="s">
@@ -3354,13 +3370,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="1" t="s">
@@ -3375,13 +3391,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
@@ -3398,14 +3414,14 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3519,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3536,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -3571,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -3588,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -3596,13 +3612,13 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="30">
-        <v>43821</v>
+        <v>43826</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
@@ -3620,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -3628,16 +3644,16 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="30">
-        <v>43821</v>
+        <v>43826</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
@@ -3740,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -3759,7 +3775,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -3775,10 +3791,10 @@
         <v>48</v>
       </c>
       <c r="C16" s="8">
-        <v>43825</v>
+        <v>43835</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -3799,7 +3815,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -3818,7 +3834,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
@@ -3848,13 +3864,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
@@ -3873,7 +3889,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -3889,7 +3905,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>67</v>
@@ -3908,10 +3924,10 @@
         <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
@@ -3927,10 +3943,10 @@
         <v>62</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
@@ -3965,10 +3981,10 @@
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
@@ -4006,7 +4022,7 @@
         <v>46011</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="19" t="s">
@@ -4046,16 +4062,16 @@
         <v>40532</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="G30" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -4067,13 +4083,13 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -4085,10 +4101,10 @@
         <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
@@ -4106,7 +4122,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>67</v>
@@ -4125,10 +4141,10 @@
         <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="19" t="s">
@@ -4144,10 +4160,10 @@
         <v>62</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
@@ -4163,10 +4179,10 @@
         <v>64</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="19" t="s">
@@ -4204,7 +4220,7 @@
         <v>665554433</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="19" t="s">
@@ -4221,16 +4237,16 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="37" t="s">
         <v>111</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4310,7 +4326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4327,7 +4343,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -4362,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -4379,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -4393,7 +4409,7 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
@@ -4411,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -4425,10 +4441,10 @@
     <row r="8" spans="1:7" ht="75.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="34" t="s">
@@ -4531,7 +4547,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -4550,7 +4566,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -4569,7 +4585,7 @@
         <v>43835</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -4587,10 +4603,10 @@
         <v>49</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -4609,7 +4625,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
@@ -4645,7 +4661,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
@@ -4664,7 +4680,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -4677,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -4696,13 +4712,13 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
@@ -4715,13 +4731,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
@@ -4734,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>35</v>
@@ -4753,13 +4769,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
@@ -4770,7 +4786,7 @@
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -4787,26 +4803,26 @@
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -4823,13 +4839,13 @@
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="19" t="s">
@@ -4842,7 +4858,7 @@
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -4859,13 +4875,13 @@
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
@@ -4876,13 +4892,13 @@
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
@@ -4893,7 +4909,7 @@
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -4910,13 +4926,13 @@
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="19" t="s">
@@ -4927,7 +4943,7 @@
     <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -4944,13 +4960,13 @@
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="8">
         <v>46011</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="19" t="s">
@@ -4963,7 +4979,7 @@
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -4980,22 +4996,22 @@
     <row r="39" spans="1:7" ht="76.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
@@ -5005,14 +5021,14 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
@@ -5021,21 +5037,21 @@
         <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
@@ -5045,65 +5061,65 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>46</v>
@@ -5113,41 +5129,41 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="30">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>40</v>
@@ -5156,17 +5172,17 @@
     <row r="49" spans="1:7" ht="30">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -5177,14 +5193,14 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5211,7 +5227,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5301,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5301,7 +5317,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -5359,7 +5375,7 @@
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="31"/>
       <c r="B6" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="24"/>
@@ -5385,7 +5401,7 @@
     <row r="8" spans="1:7" ht="75.75" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56"/>
@@ -5921,7 +5937,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/_3/TC/TC_book_new.xlsx
+++ b/_3/TC/TC_book_new.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Bk_1V_HP" sheetId="1" r:id="rId1"/>
     <sheet name="Bk_2V_HP" sheetId="8" r:id="rId2"/>
-    <sheet name="Bk_N_AisCH_1" sheetId="10" r:id="rId3"/>
+    <sheet name="Bk_P_AisCH_1" sheetId="10" r:id="rId3"/>
     <sheet name="Bk_N_INbeCH" sheetId="11" r:id="rId4"/>
     <sheet name="Шаблон" sheetId="12" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="172">
   <si>
     <t>Test Case</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>CH112233</t>
-  </si>
-  <si>
-    <t>VALIDATION FAILED</t>
   </si>
   <si>
     <t>Failed</t>
@@ -649,10 +646,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
-возраст пассажира 11 лет (ребёнок)</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 years   from keyboard </t>
   </si>
   <si>
@@ -683,12 +676,19 @@
       <t>issue: filled</t>
     </r>
   </si>
+  <si>
+    <t>Проверка заказа билета на одного взрослого пассажира (незарегестрированного пользователя на себя) в одну сторону 
+возраст пассажира 11 лет (ребёнок) для сопровождения</t>
+  </si>
+  <si>
+    <t>на несопровождаемого ребёнка заказывается взрослый билет</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,13 +832,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1014,7 +1007,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1116,16 +1109,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,10 +1122,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1134,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1190,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1871,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1887,35 +1889,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -1988,39 +1990,39 @@
       <c r="B8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -2417,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -2598,30 +2600,30 @@
         <v>16</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
@@ -2629,7 +2631,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="36" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2696,35 +2698,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -2797,39 +2799,39 @@
       <c r="B8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="56"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -2914,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>72</v>
@@ -2933,7 +2935,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="8">
         <v>43835</v>
@@ -2954,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -2973,7 +2975,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>29</v>
@@ -3045,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -3064,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
@@ -3083,7 +3085,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
@@ -3102,7 +3104,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>35</v>
@@ -3121,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
@@ -3140,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -3159,7 +3161,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
@@ -3180,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -3199,7 +3201,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
@@ -3256,7 +3258,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>34</v>
@@ -3275,7 +3277,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>75</v>
@@ -3294,7 +3296,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>76</v>
@@ -3313,7 +3315,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>79</v>
@@ -3332,7 +3334,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>46</v>
@@ -3420,31 +3422,31 @@
       <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="41" t="s">
-        <v>111</v>
+      <c r="G41" s="39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3535,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3551,35 +3553,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -3587,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -3604,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -3636,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -3652,39 +3654,39 @@
       <c r="B8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="56"/>
+      <c r="C8" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="54"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -3864,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>31</v>
@@ -4051,27 +4053,25 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4">
         <v>19</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="65">
         <v>40532</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>166</v>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -4082,14 +4082,14 @@
         <v>58</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="36" t="s">
-        <v>110</v>
+      <c r="D31" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="10"/>
     </row>
@@ -4178,8 +4178,8 @@
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>113</v>
+      <c r="C36" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>82</v>
@@ -4236,44 +4236,44 @@
         <v>65</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="36" t="s">
-        <v>110</v>
+      <c r="D39" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4326,7 +4326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4342,35 +4342,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
@@ -4427,7 +4427,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
@@ -4443,39 +4443,39 @@
       <c r="B8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="56"/>
+      <c r="C8" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="54"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -4581,7 +4581,7 @@
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="40">
         <v>43835</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -4602,8 +4602,8 @@
       <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>142</v>
+      <c r="C17" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>81</v>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -4693,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
@@ -4712,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
@@ -4731,7 +4731,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>76</v>
@@ -4750,7 +4750,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>35</v>
@@ -4769,7 +4769,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
@@ -4786,7 +4786,7 @@
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
@@ -4803,7 +4803,7 @@
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="8">
         <v>46011</v>
@@ -4816,13 +4816,13 @@
         <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -4839,7 +4839,7 @@
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
@@ -4858,7 +4858,7 @@
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -4875,10 +4875,10 @@
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>82</v>
@@ -4892,7 +4892,7 @@
     <row r="33" spans="1:7" ht="30">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>76</v>
@@ -4909,7 +4909,7 @@
     <row r="34" spans="1:7" ht="30">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>35</v>
@@ -4926,10 +4926,10 @@
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>82</v>
@@ -4943,7 +4943,7 @@
     <row r="36" spans="1:7" ht="30">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -4960,7 +4960,7 @@
     <row r="37" spans="1:7" ht="30">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="8">
         <v>46011</v>
@@ -4979,7 +4979,7 @@
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -4996,22 +4996,22 @@
     <row r="39" spans="1:7" ht="76.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>146</v>
+        <v>109</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30">
@@ -5025,10 +5025,10 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>169</v>
+        <v>109</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G44" s="2"/>
     </row>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G45" s="2"/>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -5139,14 +5139,14 @@
         <v>98</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>40</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -5197,37 +5197,37 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5301,7 +5301,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G52"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5316,35 +5316,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21"/>
@@ -5403,39 +5403,39 @@
       <c r="B8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -5511,7 +5511,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="10"/>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -5524,7 +5524,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -5790,7 +5790,7 @@
       <c r="F39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="1:7" ht="30">
       <c r="A40" s="4"/>
@@ -5911,33 +5911,33 @@
       <c r="F50" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="40"/>
+      <c r="G50" s="38"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
